--- a/Flujo de decisiones.xlsx
+++ b/Flujo de decisiones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Python\Tipodeevaluacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A99E10-0BE2-4022-95AA-3F4320BA8650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8C9FBB-0810-4741-97FD-CCD223F28DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F110815B-6689-4C08-8E67-7499638DE4A4}"/>
   </bookViews>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0920F84-8FB8-478F-8668-63EA60B04F58}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,7 +922,7 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>

--- a/Flujo de decisiones.xlsx
+++ b/Flujo de decisiones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Python\Tipodeevaluacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8C9FBB-0810-4741-97FD-CCD223F28DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9981306A-3B58-4666-8AC0-9A1A15B484C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F110815B-6689-4C08-8E67-7499638DE4A4}"/>
   </bookViews>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0920F84-8FB8-478F-8668-63EA60B04F58}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,7 +878,7 @@
         <v>93</v>
       </c>
       <c r="F4">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>

--- a/Flujo de decisiones.xlsx
+++ b/Flujo de decisiones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28708"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Python\Tipodeevaluacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9981306A-3B58-4666-8AC0-9A1A15B484C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95397E82-28FD-4F60-B508-338E9626888C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F110815B-6689-4C08-8E67-7499638DE4A4}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="95">
   <si>
     <t>Propiedad de garante</t>
   </si>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0920F84-8FB8-478F-8668-63EA60B04F58}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,8 +827,8 @@
       <c r="A3" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
+      <c r="B3" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -978,7 +978,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B2 B6" twoDigitTextYear="1"/>
+    <ignoredError sqref="B2:B3 B6" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
